--- a/CBioPortal_GDC.xlsx
+++ b/CBioPortal_GDC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="205">
   <si>
     <t>Cancer Study</t>
   </si>
@@ -372,6 +372,9 @@
     <t>Entrez_Gene_Id</t>
   </si>
   <si>
+    <t>Sample_Id(s)</t>
+  </si>
+  <si>
     <t>Sample_Id_N (s)</t>
   </si>
   <si>
@@ -670,6 +673,27 @@
   </si>
   <si>
     <t>data_segmented_XX</t>
+  </si>
+  <si>
+    <t>Entrez_Gene_Id:</t>
+  </si>
+  <si>
+    <t>Gene Expression Data + Biospecimen Data</t>
+  </si>
+  <si>
+    <t>/cases?filters=project.project_name</t>
+  </si>
+  <si>
+    <t>Transcriptome Profiling</t>
+  </si>
+  <si>
+    <t>miRNA/Gene Expression Quantification</t>
+  </si>
+  <si>
+    <t>/cases?filters=project.project_type</t>
+  </si>
+  <si>
+    <t>Manifest File</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1751,8 @@
   </sheetPr>
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1738,8 +1762,8 @@
     <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="82.5" customWidth="1"/>
   </cols>
@@ -1747,7 +1771,7 @@
     <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
@@ -1756,23 +1780,23 @@
     </row>
     <row r="4" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G4" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="87" t="s">
         <v>170</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>169</v>
       </c>
       <c r="J4" s="88"/>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1800,12 +1824,14 @@
         <v>15</v>
       </c>
       <c r="G6" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="I6" s="86"/>
+        <v>190</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>200</v>
+      </c>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1816,12 +1842,14 @@
         <v>15</v>
       </c>
       <c r="G7" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H7" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="86"/>
+        <v>190</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>203</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1832,16 +1860,16 @@
         <v>15</v>
       </c>
       <c r="G8" s="89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I8" s="86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -1850,18 +1878,18 @@
         <v>95</v>
       </c>
       <c r="F9" s="83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H9" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I9" s="86"/>
       <c r="J9" s="6"/>
       <c r="K9" s="79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
@@ -1869,13 +1897,13 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="E10" s="54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="89"/>
       <c r="I10" s="86"/>
@@ -1883,23 +1911,25 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E11" s="54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I11" s="86"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E12" s="54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>15</v>
@@ -1907,164 +1937,178 @@
       <c r="G12" s="89"/>
       <c r="H12" s="89"/>
       <c r="I12" s="86"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E13" s="54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G13" s="89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I13" s="86"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="K13" s="79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="79"/>
       <c r="M13" s="79"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E14" s="54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I14" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E15" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15" s="83" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I15" s="86"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E16" s="54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F16" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+        <v>180</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>202</v>
+      </c>
       <c r="I16" s="86"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="86"/>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G18" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H18" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I18" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J18" s="94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G19" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I19" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J19" s="94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F20" s="83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G20" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I20" s="89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J20" s="94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F21" s="84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G21" s="95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H21" s="95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I21" s="95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J21" s="11"/>
     </row>
@@ -2118,7 +2162,7 @@
     <row r="7" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G8" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2212,7 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.2">
@@ -2181,7 +2225,7 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.2">
@@ -2193,10 +2237,10 @@
         <v>75</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.2">
@@ -2221,7 +2265,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>94</v>
@@ -2250,7 +2294,7 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2273,55 +2317,55 @@
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G21" s="64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G22" s="15"/>
       <c r="H22" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G23" s="15"/>
       <c r="H23" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G24" s="15"/>
       <c r="H24" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24" s="20"/>
     </row>
@@ -2342,16 +2386,16 @@
     <row r="28" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F29" s="46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="47"/>
     </row>
     <row r="30" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F30" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -2362,7 +2406,7 @@
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -2394,23 +2438,23 @@
   <sheetData>
     <row r="2" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2460,7 +2504,7 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.2">
@@ -2473,7 +2517,7 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.2">
@@ -2485,10 +2529,10 @@
         <v>75</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.2">
@@ -2513,7 +2557,7 @@
         <v>23</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>94</v>
@@ -2542,7 +2586,7 @@
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.2">
@@ -2564,52 +2608,52 @@
         <v>2</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="15"/>
       <c r="G21" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="G22" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="15"/>
       <c r="G23" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J23" s="20"/>
     </row>
@@ -2713,7 +2757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+    <sheetView zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2735,10 +2779,10 @@
     <row r="1" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3175,7 +3219,7 @@
     </row>
     <row r="26" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="17" t="s">
@@ -3807,7 +3851,7 @@
     <row r="6" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3870,13 +3914,13 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F13" s="7"/>
       <c r="G13" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>75</v>
@@ -3911,10 +3955,10 @@
         <v>23</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="6:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3949,20 +3993,20 @@
     <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19" s="7"/>
       <c r="G19" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20" s="7"/>
       <c r="G20" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>23</v>
@@ -3973,7 +4017,7 @@
     <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21" s="7"/>
       <c r="G21" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>23</v>
@@ -3984,7 +4028,7 @@
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="7"/>
       <c r="G22" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>23</v>
@@ -3995,7 +4039,7 @@
     <row r="23" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F23" s="9"/>
       <c r="G23" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>23</v>
@@ -4110,7 +4154,7 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.2">
@@ -4194,10 +4238,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="14"/>
@@ -4208,7 +4252,7 @@
         <v>104</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="14"/>
@@ -4216,13 +4260,13 @@
     <row r="21" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="16"/>
       <c r="F21" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="19"/>
     </row>
@@ -4283,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G3:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="C3" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4299,7 +4343,7 @@
     <row r="3" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4319,7 +4363,7 @@
     </row>
     <row r="6" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G6" s="57"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="6"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -4362,7 +4406,7 @@
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.2">
@@ -4375,7 +4419,7 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.2">
@@ -4388,7 +4432,7 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.2">
@@ -4458,22 +4502,34 @@
       <c r="G18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="J19" s="45"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="J20" s="53"/>
       <c r="K20" s="35"/>
     </row>
@@ -4511,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G9:L28"/>
+  <dimension ref="G9:L25"/>
   <sheetViews>
     <sheetView topLeftCell="E7" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="128" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,14 +4578,14 @@
     <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="7:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="7:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G10" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="7:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4555,7 +4611,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="36" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -4570,7 +4626,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="15"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="17" t="s">
         <v>17</v>
       </c>
@@ -4579,11 +4635,11 @@
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="15"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="17" t="s">
         <v>18</v>
       </c>
@@ -4592,11 +4648,11 @@
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="15"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="17" t="s">
         <v>98</v>
       </c>
@@ -4607,14 +4663,14 @@
         <v>14</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L16" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="15"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="17" t="s">
         <v>99</v>
       </c>
@@ -4627,7 +4683,7 @@
       </c>
     </row>
     <row r="18" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="15"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="17" t="s">
         <v>100</v>
       </c>
@@ -4640,7 +4696,7 @@
       </c>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="15"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="17" t="s">
         <v>101</v>
       </c>
@@ -4653,7 +4709,7 @@
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="15"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="17" t="s">
         <v>19</v>
       </c>
@@ -4664,7 +4720,7 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="16"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="17" t="s">
         <v>103</v>
       </c>
@@ -4682,55 +4738,48 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="14"/>
+      <c r="H23" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>199</v>
+      </c>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="7"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="6"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="7"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G26" s="7"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G27" s="7"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="9"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="35"/>
+    <row r="25" spans="7:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="16"/>
+      <c r="H25" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="J23:J25"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="J24:J28"/>
     <mergeCell ref="G13:G21"/>
+    <mergeCell ref="G23:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4756,7 +4805,7 @@
     <row r="5" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4806,7 +4855,7 @@
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="6:10" x14ac:dyDescent="0.2">
@@ -4819,7 +4868,7 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="6:10" x14ac:dyDescent="0.2">
@@ -4834,7 +4883,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="6:10" x14ac:dyDescent="0.2">
@@ -4886,7 +4935,7 @@
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.2">
@@ -4903,13 +4952,13 @@
     <row r="18" spans="6:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H18" s="61" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" s="43"/>
     </row>
@@ -4925,13 +4974,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -4951,78 +5000,78 @@
     <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22" s="15"/>
       <c r="G22" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J22" s="43"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23" s="15"/>
       <c r="G23" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24" s="15"/>
       <c r="G24" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J24" s="43"/>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25" s="15"/>
       <c r="G25" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J25" s="43"/>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26" s="15"/>
       <c r="G26" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J26" s="43"/>
     </row>
     <row r="27" spans="6:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="16"/>
       <c r="G27" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="68" t="s">
         <v>152</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="68" t="s">
-        <v>151</v>
       </c>
       <c r="J27" s="66" t="s">
         <v>14</v>
